--- a/src/assets/template/b2b.xlsx
+++ b/src/assets/template/b2b.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyData\Taib\WebAdmin\THS-AdminDashboardWeb\src\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDF4CA8A-8EF7-4FBF-8651-1A43133531E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C813C9-8F7C-4F52-89A6-8DF84F04C511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{DA930123-C3DB-480F-8AFC-FC88A3B25E3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -87,6 +88,12 @@
   </si>
   <si>
     <t>Region</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
   </si>
 </sst>
 </file>
@@ -473,7 +480,7 @@
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -533,5 +540,42 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{817F393B-A621-49ED-8A2B-9E9D4931E62B}">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4FBB58-9237-4563-A34D-37989D1AA5A4}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>